--- a/クリックポスト発送情報/20200625230906/英子日本发货表格6.25.xlsx
+++ b/クリックポスト発送情報/20200625230906/英子日本发货表格6.25.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20292" windowHeight="12276"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>序号</t>
   </si>
@@ -299,20 +299,76 @@
   <si>
     <t xml:space="preserve"> 
 09034305439</t>
+  </si>
+  <si>
+    <t>628493845291</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845280</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845276</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845265</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628493845254</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845243</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845232</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845221</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845210</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845206</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845195</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845184</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845173</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845162</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845151</t>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="000000"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -322,18 +378,16 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5A1BFB"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -346,7 +400,7 @@
       <sz val="12"/>
       <color rgb="FF521EF8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -359,7 +413,7 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -379,7 +433,7 @@
       <sz val="12"/>
       <color rgb="FF2B1BFB"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -390,163 +444,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,194 +471,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -769,261 +495,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1123,71 +607,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="一般" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+  <cellStyles count="3">
+    <cellStyle name="一般" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
-      <color rgb="00FF0000"/>
+      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1199,7 +639,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1221,7 +661,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1263,7 +703,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1305,7 +745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1347,7 +787,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1389,7 +829,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1431,7 +871,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1473,7 +913,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1515,7 +955,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1557,7 +997,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1599,7 +1039,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1641,7 +1081,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1683,7 +1123,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1725,7 +1165,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1767,7 +1207,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1809,7 +1249,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2156,170 +1596,169 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FY258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I17:I18"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="3" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="3" customWidth="1"/>
-    <col min="9" max="21" width="15.375" style="3" customWidth="1"/>
-    <col min="22" max="24" width="15.375" style="4" customWidth="1"/>
-    <col min="25" max="29" width="15.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" style="3" customWidth="1"/>
+    <col min="9" max="21" width="15.3984375" style="3" customWidth="1"/>
+    <col min="22" max="24" width="15.3984375" style="4" customWidth="1"/>
+    <col min="25" max="29" width="15.3984375" style="3" customWidth="1"/>
     <col min="30" max="31" width="7.5" style="3" customWidth="1"/>
-    <col min="32" max="32" width="9.125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="7.75" style="3" customWidth="1"/>
+    <col min="32" max="32" width="9.09765625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="7.69921875" style="3" customWidth="1"/>
     <col min="34" max="34" width="9" style="3" customWidth="1"/>
-    <col min="35" max="36" width="6.75" style="3" customWidth="1"/>
-    <col min="37" max="37" width="8.375" style="3" customWidth="1"/>
-    <col min="38" max="38" width="6.375" style="3" customWidth="1"/>
-    <col min="39" max="39" width="7.375" style="3" customWidth="1"/>
-    <col min="40" max="40" width="7.625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="9.125" style="3" customWidth="1"/>
-    <col min="42" max="42" width="8.875" style="3" customWidth="1"/>
-    <col min="43" max="43" width="7.375" style="3" customWidth="1"/>
+    <col min="35" max="36" width="6.69921875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="8.3984375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="6.3984375" style="3" customWidth="1"/>
+    <col min="39" max="39" width="7.3984375" style="3" customWidth="1"/>
+    <col min="40" max="40" width="7.59765625" style="3" customWidth="1"/>
+    <col min="41" max="41" width="9.09765625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="8.8984375" style="3" customWidth="1"/>
+    <col min="43" max="43" width="7.3984375" style="3" customWidth="1"/>
     <col min="44" max="44" width="7.5" style="3" customWidth="1"/>
-    <col min="45" max="45" width="8.625" style="3" customWidth="1"/>
+    <col min="45" max="45" width="8.59765625" style="3" customWidth="1"/>
     <col min="46" max="46" width="9" style="3" customWidth="1"/>
-    <col min="47" max="47" width="8.625" style="3" customWidth="1"/>
-    <col min="48" max="48" width="6.625" style="3" customWidth="1"/>
-    <col min="49" max="49" width="8.375" style="3" customWidth="1"/>
+    <col min="47" max="47" width="8.59765625" style="3" customWidth="1"/>
+    <col min="48" max="48" width="6.59765625" style="3" customWidth="1"/>
+    <col min="49" max="49" width="8.3984375" style="3" customWidth="1"/>
     <col min="50" max="50" width="7" style="3" customWidth="1"/>
-    <col min="51" max="51" width="8.25" style="3" customWidth="1"/>
-    <col min="52" max="52" width="8.125" style="3" customWidth="1"/>
-    <col min="53" max="53" width="5.875" style="3" customWidth="1"/>
-    <col min="54" max="54" width="6.375" style="5" customWidth="1"/>
-    <col min="55" max="55" width="8.375" style="5" customWidth="1"/>
-    <col min="56" max="56" width="15.375" style="6" customWidth="1"/>
-    <col min="57" max="57" width="7.875" style="5" customWidth="1"/>
-    <col min="58" max="58" width="15.375" style="5" customWidth="1"/>
+    <col min="51" max="51" width="8.19921875" style="3" customWidth="1"/>
+    <col min="52" max="52" width="8.09765625" style="3" customWidth="1"/>
+    <col min="53" max="53" width="5.8984375" style="3" customWidth="1"/>
+    <col min="54" max="54" width="6.3984375" style="5" customWidth="1"/>
+    <col min="55" max="55" width="8.3984375" style="5" customWidth="1"/>
+    <col min="56" max="56" width="15.3984375" style="6" customWidth="1"/>
+    <col min="57" max="57" width="7.8984375" style="5" customWidth="1"/>
+    <col min="58" max="58" width="15.3984375" style="5" customWidth="1"/>
     <col min="59" max="59" width="8" style="5" customWidth="1"/>
-    <col min="60" max="60" width="6.625" style="5" customWidth="1"/>
-    <col min="61" max="61" width="6.875" style="5" customWidth="1"/>
-    <col min="62" max="62" width="5.875" style="5" customWidth="1"/>
-    <col min="63" max="63" width="5.75" style="5" customWidth="1"/>
-    <col min="64" max="64" width="15.375" style="5" customWidth="1"/>
-    <col min="65" max="65" width="9.75" style="5" customWidth="1"/>
+    <col min="60" max="60" width="6.59765625" style="5" customWidth="1"/>
+    <col min="61" max="61" width="6.8984375" style="5" customWidth="1"/>
+    <col min="62" max="62" width="5.8984375" style="5" customWidth="1"/>
+    <col min="63" max="63" width="5.69921875" style="5" customWidth="1"/>
+    <col min="64" max="64" width="15.3984375" style="5" customWidth="1"/>
+    <col min="65" max="65" width="9.69921875" style="5" customWidth="1"/>
     <col min="66" max="66" width="7.5" style="5" customWidth="1"/>
-    <col min="67" max="67" width="6.625" style="5" customWidth="1"/>
+    <col min="67" max="67" width="6.59765625" style="5" customWidth="1"/>
     <col min="68" max="68" width="6.5" style="5" customWidth="1"/>
-    <col min="69" max="69" width="6.125" style="5" customWidth="1"/>
-    <col min="70" max="70" width="7.375" style="5" customWidth="1"/>
-    <col min="71" max="77" width="15.375" style="5" customWidth="1"/>
-    <col min="78" max="78" width="5.875" style="5" customWidth="1"/>
-    <col min="79" max="79" width="9.875" style="5" customWidth="1"/>
+    <col min="69" max="69" width="6.09765625" style="5" customWidth="1"/>
+    <col min="70" max="70" width="7.3984375" style="5" customWidth="1"/>
+    <col min="71" max="77" width="15.3984375" style="5" customWidth="1"/>
+    <col min="78" max="78" width="5.8984375" style="5" customWidth="1"/>
+    <col min="79" max="79" width="9.8984375" style="5" customWidth="1"/>
     <col min="80" max="80" width="9" style="5"/>
-    <col min="81" max="81" width="7.625" style="5" customWidth="1"/>
-    <col min="82" max="82" width="5.125" style="5" customWidth="1"/>
-    <col min="83" max="83" width="9.125" style="5" customWidth="1"/>
-    <col min="84" max="84" width="6.375" style="5" customWidth="1"/>
-    <col min="85" max="85" width="7.25" style="5" customWidth="1"/>
-    <col min="86" max="87" width="7.375" style="5" customWidth="1"/>
-    <col min="88" max="88" width="8.25" style="5" customWidth="1"/>
-    <col min="89" max="89" width="7.375" style="5" customWidth="1"/>
+    <col min="81" max="81" width="7.59765625" style="5" customWidth="1"/>
+    <col min="82" max="82" width="5.09765625" style="5" customWidth="1"/>
+    <col min="83" max="83" width="9.09765625" style="5" customWidth="1"/>
+    <col min="84" max="84" width="6.3984375" style="5" customWidth="1"/>
+    <col min="85" max="85" width="7.19921875" style="5" customWidth="1"/>
+    <col min="86" max="87" width="7.3984375" style="5" customWidth="1"/>
+    <col min="88" max="88" width="8.19921875" style="5" customWidth="1"/>
+    <col min="89" max="89" width="7.3984375" style="5" customWidth="1"/>
     <col min="90" max="90" width="7" style="5" customWidth="1"/>
-    <col min="91" max="91" width="5.875" style="5" customWidth="1"/>
-    <col min="92" max="92" width="8.125" style="5" customWidth="1"/>
-    <col min="93" max="93" width="8.375" style="5" customWidth="1"/>
-    <col min="94" max="94" width="7.875" style="5" customWidth="1"/>
-    <col min="95" max="95" width="5.625" style="5" customWidth="1"/>
-    <col min="96" max="96" width="6.875" style="5" customWidth="1"/>
+    <col min="91" max="91" width="5.8984375" style="5" customWidth="1"/>
+    <col min="92" max="92" width="8.09765625" style="5" customWidth="1"/>
+    <col min="93" max="93" width="8.3984375" style="5" customWidth="1"/>
+    <col min="94" max="94" width="7.8984375" style="5" customWidth="1"/>
+    <col min="95" max="95" width="5.59765625" style="5" customWidth="1"/>
+    <col min="96" max="96" width="6.8984375" style="5" customWidth="1"/>
     <col min="97" max="97" width="7" style="5" customWidth="1"/>
-    <col min="98" max="98" width="7.875" style="5" customWidth="1"/>
+    <col min="98" max="98" width="7.8984375" style="5" customWidth="1"/>
     <col min="99" max="99" width="6.5" style="5" customWidth="1"/>
-    <col min="100" max="100" width="15.375" style="5" customWidth="1"/>
-    <col min="101" max="101" width="8.625" style="5" customWidth="1"/>
-    <col min="102" max="102" width="10.25" style="5" customWidth="1"/>
-    <col min="103" max="103" width="9.25" style="5" customWidth="1"/>
-    <col min="104" max="104" width="6.375" style="5" customWidth="1"/>
-    <col min="105" max="106" width="8.75" style="5" customWidth="1"/>
-    <col min="107" max="107" width="6.125" style="5" customWidth="1"/>
-    <col min="108" max="108" width="7.75" style="5" customWidth="1"/>
-    <col min="109" max="109" width="7.25" style="5" customWidth="1"/>
-    <col min="110" max="110" width="8.875" style="5" customWidth="1"/>
-    <col min="111" max="111" width="15.375" style="5" customWidth="1"/>
+    <col min="100" max="100" width="15.3984375" style="5" customWidth="1"/>
+    <col min="101" max="101" width="8.59765625" style="5" customWidth="1"/>
+    <col min="102" max="102" width="10.19921875" style="5" customWidth="1"/>
+    <col min="103" max="103" width="9.19921875" style="5" customWidth="1"/>
+    <col min="104" max="104" width="6.3984375" style="5" customWidth="1"/>
+    <col min="105" max="106" width="8.69921875" style="5" customWidth="1"/>
+    <col min="107" max="107" width="6.09765625" style="5" customWidth="1"/>
+    <col min="108" max="108" width="7.69921875" style="5" customWidth="1"/>
+    <col min="109" max="109" width="7.19921875" style="5" customWidth="1"/>
+    <col min="110" max="110" width="8.8984375" style="5" customWidth="1"/>
+    <col min="111" max="111" width="15.3984375" style="5" customWidth="1"/>
     <col min="112" max="112" width="7.5" style="5" customWidth="1"/>
-    <col min="113" max="113" width="5.75" style="5" customWidth="1"/>
-    <col min="114" max="114" width="8.125" style="5" customWidth="1"/>
-    <col min="115" max="115" width="9.875" style="5" customWidth="1"/>
-    <col min="116" max="116" width="8.125" style="5" customWidth="1"/>
+    <col min="113" max="113" width="5.69921875" style="5" customWidth="1"/>
+    <col min="114" max="114" width="8.09765625" style="5" customWidth="1"/>
+    <col min="115" max="115" width="9.8984375" style="5" customWidth="1"/>
+    <col min="116" max="116" width="8.09765625" style="5" customWidth="1"/>
     <col min="117" max="117" width="7.5" style="5" customWidth="1"/>
-    <col min="118" max="118" width="9.875" style="5" customWidth="1"/>
-    <col min="119" max="119" width="8.25" style="5" customWidth="1"/>
-    <col min="120" max="120" width="9.375" style="5" customWidth="1"/>
-    <col min="121" max="121" width="7.375" style="5" customWidth="1"/>
-    <col min="122" max="122" width="8.625" style="5" customWidth="1"/>
+    <col min="118" max="118" width="9.8984375" style="5" customWidth="1"/>
+    <col min="119" max="119" width="8.19921875" style="5" customWidth="1"/>
+    <col min="120" max="120" width="9.3984375" style="5" customWidth="1"/>
+    <col min="121" max="121" width="7.3984375" style="5" customWidth="1"/>
+    <col min="122" max="122" width="8.59765625" style="5" customWidth="1"/>
     <col min="123" max="123" width="7" style="5" customWidth="1"/>
     <col min="124" max="124" width="9.5" style="5" customWidth="1"/>
-    <col min="125" max="125" width="6.875" style="5" customWidth="1"/>
-    <col min="126" max="126" width="6.75" style="5" customWidth="1"/>
-    <col min="127" max="127" width="7.625" style="5" customWidth="1"/>
-    <col min="128" max="128" width="9.25" style="5" customWidth="1"/>
+    <col min="125" max="125" width="6.8984375" style="5" customWidth="1"/>
+    <col min="126" max="126" width="6.69921875" style="5" customWidth="1"/>
+    <col min="127" max="127" width="7.59765625" style="5" customWidth="1"/>
+    <col min="128" max="128" width="9.19921875" style="5" customWidth="1"/>
     <col min="129" max="130" width="6" style="5" customWidth="1"/>
-    <col min="131" max="132" width="7.875" style="5" customWidth="1"/>
-    <col min="133" max="133" width="9.25" style="5" customWidth="1"/>
-    <col min="134" max="134" width="13.125" style="5" customWidth="1"/>
-    <col min="135" max="135" width="8.125" style="5" customWidth="1"/>
-    <col min="136" max="136" width="7.375" style="5" customWidth="1"/>
-    <col min="137" max="137" width="6.875" style="5" customWidth="1"/>
-    <col min="138" max="138" width="7.625" style="5" customWidth="1"/>
+    <col min="131" max="132" width="7.8984375" style="5" customWidth="1"/>
+    <col min="133" max="133" width="9.19921875" style="5" customWidth="1"/>
+    <col min="134" max="134" width="13.09765625" style="5" customWidth="1"/>
+    <col min="135" max="135" width="8.09765625" style="5" customWidth="1"/>
+    <col min="136" max="136" width="7.3984375" style="5" customWidth="1"/>
+    <col min="137" max="137" width="6.8984375" style="5" customWidth="1"/>
+    <col min="138" max="138" width="7.59765625" style="5" customWidth="1"/>
     <col min="139" max="139" width="9.5" style="5" customWidth="1"/>
-    <col min="140" max="140" width="15.375" style="5" customWidth="1"/>
-    <col min="141" max="141" width="5.875" style="7" customWidth="1"/>
+    <col min="140" max="140" width="15.3984375" style="5" customWidth="1"/>
+    <col min="141" max="141" width="5.8984375" style="7" customWidth="1"/>
     <col min="142" max="142" width="9.5" style="7" customWidth="1"/>
-    <col min="143" max="143" width="7.375" style="7" customWidth="1"/>
-    <col min="144" max="145" width="10.25" style="7" customWidth="1"/>
-    <col min="146" max="146" width="7.25" style="7" customWidth="1"/>
-    <col min="147" max="147" width="15.375" style="7" customWidth="1"/>
-    <col min="148" max="148" width="7.375" style="7" customWidth="1"/>
+    <col min="143" max="143" width="7.3984375" style="7" customWidth="1"/>
+    <col min="144" max="145" width="10.19921875" style="7" customWidth="1"/>
+    <col min="146" max="146" width="7.19921875" style="7" customWidth="1"/>
+    <col min="147" max="147" width="15.3984375" style="7" customWidth="1"/>
+    <col min="148" max="148" width="7.3984375" style="7" customWidth="1"/>
     <col min="149" max="149" width="9" style="7"/>
-    <col min="150" max="150" width="9.25" style="7" customWidth="1"/>
-    <col min="151" max="151" width="6.75" style="7" customWidth="1"/>
-    <col min="152" max="153" width="8.125" style="7" customWidth="1"/>
-    <col min="154" max="154" width="8.875" style="7" customWidth="1"/>
-    <col min="155" max="155" width="6.625" style="7" customWidth="1"/>
+    <col min="150" max="150" width="9.19921875" style="7" customWidth="1"/>
+    <col min="151" max="151" width="6.69921875" style="7" customWidth="1"/>
+    <col min="152" max="153" width="8.09765625" style="7" customWidth="1"/>
+    <col min="154" max="154" width="8.8984375" style="7" customWidth="1"/>
+    <col min="155" max="155" width="6.59765625" style="7" customWidth="1"/>
     <col min="156" max="156" width="7.5" style="7" customWidth="1"/>
-    <col min="157" max="157" width="7.625" style="7" customWidth="1"/>
-    <col min="158" max="158" width="6.375" style="7" customWidth="1"/>
-    <col min="159" max="159" width="8.25" style="7" customWidth="1"/>
-    <col min="160" max="160" width="6.875" style="7" customWidth="1"/>
-    <col min="161" max="162" width="7.75" style="7" customWidth="1"/>
-    <col min="163" max="163" width="6.625" style="7" customWidth="1"/>
-    <col min="164" max="164" width="9.375" style="7" customWidth="1"/>
+    <col min="157" max="157" width="7.59765625" style="7" customWidth="1"/>
+    <col min="158" max="158" width="6.3984375" style="7" customWidth="1"/>
+    <col min="159" max="159" width="8.19921875" style="7" customWidth="1"/>
+    <col min="160" max="160" width="6.8984375" style="7" customWidth="1"/>
+    <col min="161" max="162" width="7.69921875" style="7" customWidth="1"/>
+    <col min="163" max="163" width="6.59765625" style="7" customWidth="1"/>
+    <col min="164" max="164" width="9.3984375" style="7" customWidth="1"/>
     <col min="165" max="165" width="8.5" style="7" customWidth="1"/>
-    <col min="166" max="166" width="6.875" style="7" customWidth="1"/>
-    <col min="167" max="167" width="7.75" style="7" customWidth="1"/>
-    <col min="168" max="169" width="6.75" style="7" customWidth="1"/>
-    <col min="170" max="170" width="9.125" style="7" customWidth="1"/>
-    <col min="171" max="171" width="6.75" style="7" customWidth="1"/>
-    <col min="172" max="172" width="6.625" style="7" customWidth="1"/>
-    <col min="173" max="173" width="6.875" style="7" customWidth="1"/>
-    <col min="174" max="174" width="6.375" style="7" customWidth="1"/>
-    <col min="175" max="176" width="7.375" style="7" customWidth="1"/>
-    <col min="177" max="177" width="7.625" style="7" customWidth="1"/>
-    <col min="178" max="178" width="15.375" style="7" customWidth="1"/>
-    <col min="179" max="181" width="10.625" style="8" customWidth="1"/>
+    <col min="166" max="166" width="6.8984375" style="7" customWidth="1"/>
+    <col min="167" max="167" width="7.69921875" style="7" customWidth="1"/>
+    <col min="168" max="169" width="6.69921875" style="7" customWidth="1"/>
+    <col min="170" max="170" width="9.09765625" style="7" customWidth="1"/>
+    <col min="171" max="171" width="6.69921875" style="7" customWidth="1"/>
+    <col min="172" max="172" width="6.59765625" style="7" customWidth="1"/>
+    <col min="173" max="173" width="6.8984375" style="7" customWidth="1"/>
+    <col min="174" max="174" width="6.3984375" style="7" customWidth="1"/>
+    <col min="175" max="176" width="7.3984375" style="7" customWidth="1"/>
+    <col min="177" max="177" width="7.59765625" style="7" customWidth="1"/>
+    <col min="178" max="178" width="15.3984375" style="7" customWidth="1"/>
+    <col min="179" max="181" width="10.59765625" style="8" customWidth="1"/>
     <col min="182" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:181">
+    <row r="1" spans="1:181" ht="42" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +1958,7 @@
       <c r="FX1" s="7"/>
       <c r="FY1" s="5"/>
     </row>
-    <row r="2" ht="122" customHeight="1" spans="1:9">
+    <row r="2" spans="1:181" ht="121.95" customHeight="1">
       <c r="A2" s="12">
         <v>10011615</v>
       </c>
@@ -2542,8 +1981,11 @@
       <c r="I2" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="K2" s="35" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="3" ht="122" customHeight="1" spans="1:9">
+    <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="12">
         <v>10011618</v>
       </c>
@@ -2566,8 +2008,11 @@
       <c r="I3" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="K3" s="35" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="4" ht="122" customHeight="1" spans="1:9">
+    <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="12">
         <v>10011623</v>
       </c>
@@ -2590,8 +2035,11 @@
       <c r="I4" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="K4" s="35" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="5" ht="122" customHeight="1" spans="1:9">
+    <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="16">
         <v>10011634</v>
       </c>
@@ -2614,8 +2062,11 @@
       <c r="I5" s="19" t="s">
         <v>27</v>
       </c>
+      <c r="K5" s="35" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="6" ht="122" customHeight="1" spans="1:9">
+    <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="16">
         <v>10011635</v>
       </c>
@@ -2638,8 +2089,11 @@
       <c r="I6" s="19" t="s">
         <v>31</v>
       </c>
+      <c r="K6" s="35" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="7" ht="122" customHeight="1" spans="1:9">
+    <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="16">
         <v>10011636</v>
       </c>
@@ -2662,8 +2116,11 @@
       <c r="I7" s="19" t="s">
         <v>35</v>
       </c>
+      <c r="K7" s="35" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="8" ht="122" customHeight="1" spans="1:9">
+    <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="16">
         <v>10011640</v>
       </c>
@@ -2686,8 +2143,11 @@
       <c r="I8" s="19" t="s">
         <v>39</v>
       </c>
+      <c r="K8" s="35" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="9" ht="122" customHeight="1" spans="1:9">
+    <row r="9" spans="1:181" ht="121.95" customHeight="1">
       <c r="A9" s="16">
         <v>10011648</v>
       </c>
@@ -2710,8 +2170,11 @@
       <c r="I9" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="K9" s="35" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" ht="122" customHeight="1" spans="1:9">
+    <row r="10" spans="1:181" ht="121.95" customHeight="1">
       <c r="A10" s="16">
         <v>10011649</v>
       </c>
@@ -2734,8 +2197,11 @@
       <c r="I10" s="19" t="s">
         <v>47</v>
       </c>
+      <c r="K10" s="35" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="11" ht="122" customHeight="1" spans="1:9">
+    <row r="11" spans="1:181" ht="121.95" customHeight="1">
       <c r="A11" s="20" t="s">
         <v>48</v>
       </c>
@@ -2758,8 +2224,11 @@
       <c r="I11" s="19" t="s">
         <v>53</v>
       </c>
+      <c r="K11" s="35" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="12" ht="122" customHeight="1" spans="1:9">
+    <row r="12" spans="1:181" ht="121.95" customHeight="1">
       <c r="A12" s="16">
         <v>10011659</v>
       </c>
@@ -2782,8 +2251,11 @@
       <c r="I12" s="19" t="s">
         <v>58</v>
       </c>
+      <c r="K12" s="35" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="13" ht="122" customHeight="1" spans="1:9">
+    <row r="13" spans="1:181" ht="121.95" customHeight="1">
       <c r="A13" s="21">
         <v>10011661</v>
       </c>
@@ -2806,8 +2278,11 @@
       <c r="I13" s="24" t="s">
         <v>63</v>
       </c>
+      <c r="K13" s="35" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="14" ht="122" customHeight="1" spans="1:9">
+    <row r="14" spans="1:181" ht="121.95" customHeight="1">
       <c r="A14" s="23" t="s">
         <v>64</v>
       </c>
@@ -2830,8 +2305,11 @@
       <c r="I14" s="24" t="s">
         <v>69</v>
       </c>
+      <c r="K14" s="35" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="15" ht="122" customHeight="1" spans="1:9">
+    <row r="15" spans="1:181" ht="121.95" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>70</v>
       </c>
@@ -2854,8 +2332,11 @@
       <c r="I15" s="29" t="s">
         <v>75</v>
       </c>
+      <c r="K15" s="35" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="16" ht="122" customHeight="1" spans="1:9">
+    <row r="16" spans="1:181" ht="121.95" customHeight="1">
       <c r="A16" s="25" t="s">
         <v>76</v>
       </c>
@@ -2878,269 +2359,273 @@
       <c r="I16" s="29" t="s">
         <v>81</v>
       </c>
+      <c r="K16" s="35" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="17" ht="122" customHeight="1"/>
-    <row r="18" ht="122" customHeight="1"/>
-    <row r="19" ht="122" customHeight="1"/>
-    <row r="20" ht="122" customHeight="1"/>
-    <row r="21" ht="122" customHeight="1"/>
-    <row r="22" ht="122" customHeight="1"/>
-    <row r="23" ht="122" customHeight="1"/>
-    <row r="24" ht="122" customHeight="1"/>
-    <row r="25" ht="122" customHeight="1"/>
-    <row r="26" ht="122" customHeight="1"/>
-    <row r="27" ht="122" customHeight="1"/>
-    <row r="28" ht="122" customHeight="1"/>
-    <row r="29" ht="122" customHeight="1"/>
-    <row r="30" ht="122" customHeight="1"/>
-    <row r="31" ht="122" customHeight="1"/>
-    <row r="32" ht="122" customHeight="1"/>
-    <row r="33" ht="122" customHeight="1"/>
-    <row r="34" ht="122" customHeight="1"/>
-    <row r="35" ht="122" customHeight="1"/>
-    <row r="36" ht="122" customHeight="1"/>
-    <row r="37" ht="122" customHeight="1"/>
-    <row r="38" ht="122" customHeight="1"/>
-    <row r="39" ht="122" customHeight="1"/>
-    <row r="40" ht="122" customHeight="1"/>
-    <row r="41" ht="122" customHeight="1"/>
-    <row r="42" ht="122" customHeight="1"/>
-    <row r="43" ht="122" customHeight="1"/>
-    <row r="44" ht="122" customHeight="1"/>
-    <row r="45" ht="122" customHeight="1"/>
-    <row r="46" ht="122" customHeight="1"/>
-    <row r="47" ht="122" customHeight="1"/>
-    <row r="48" ht="122" customHeight="1"/>
-    <row r="49" ht="122" customHeight="1"/>
-    <row r="50" ht="122" customHeight="1"/>
-    <row r="51" ht="122" customHeight="1"/>
-    <row r="52" ht="122" customHeight="1"/>
-    <row r="53" ht="122" customHeight="1"/>
-    <row r="54" ht="122" customHeight="1"/>
-    <row r="55" ht="122" customHeight="1"/>
-    <row r="56" ht="122" customHeight="1"/>
-    <row r="57" ht="122" customHeight="1"/>
-    <row r="58" ht="122" customHeight="1"/>
-    <row r="59" ht="122" customHeight="1"/>
-    <row r="60" ht="122" customHeight="1"/>
-    <row r="61" ht="122" customHeight="1"/>
-    <row r="62" ht="122" customHeight="1"/>
-    <row r="63" ht="122" customHeight="1"/>
-    <row r="64" ht="122" customHeight="1"/>
-    <row r="65" ht="122" customHeight="1"/>
-    <row r="66" ht="122" customHeight="1"/>
-    <row r="67" ht="122" customHeight="1"/>
-    <row r="68" ht="122" customHeight="1"/>
-    <row r="69" ht="122" customHeight="1"/>
-    <row r="70" ht="122" customHeight="1"/>
-    <row r="71" ht="122" customHeight="1"/>
-    <row r="72" ht="122" customHeight="1"/>
-    <row r="73" ht="122" customHeight="1"/>
-    <row r="74" ht="122" customHeight="1"/>
-    <row r="75" ht="122" customHeight="1"/>
-    <row r="76" ht="122" customHeight="1"/>
-    <row r="77" ht="122" customHeight="1"/>
-    <row r="78" ht="122" customHeight="1"/>
-    <row r="79" ht="122" customHeight="1"/>
-    <row r="80" ht="122" customHeight="1"/>
-    <row r="81" ht="122" customHeight="1"/>
-    <row r="82" ht="122" customHeight="1"/>
-    <row r="83" ht="122" customHeight="1"/>
-    <row r="84" ht="122" customHeight="1"/>
-    <row r="85" ht="122" customHeight="1"/>
-    <row r="86" ht="122" customHeight="1"/>
-    <row r="87" ht="122" customHeight="1"/>
-    <row r="88" ht="122" customHeight="1"/>
-    <row r="89" ht="122" customHeight="1"/>
-    <row r="90" ht="122" customHeight="1"/>
-    <row r="91" ht="122" customHeight="1"/>
-    <row r="92" ht="122" customHeight="1"/>
-    <row r="93" ht="122" customHeight="1"/>
-    <row r="94" ht="122" customHeight="1"/>
-    <row r="95" ht="122" customHeight="1"/>
-    <row r="96" ht="122" customHeight="1"/>
-    <row r="97" ht="122" customHeight="1"/>
-    <row r="98" ht="122" customHeight="1"/>
-    <row r="99" ht="122" customHeight="1"/>
-    <row r="100" ht="122" customHeight="1"/>
-    <row r="101" ht="122" customHeight="1"/>
-    <row r="102" ht="122" customHeight="1"/>
-    <row r="103" ht="122" customHeight="1"/>
-    <row r="104" ht="122" customHeight="1"/>
-    <row r="105" ht="122" customHeight="1"/>
-    <row r="106" ht="122" customHeight="1"/>
-    <row r="107" ht="122" customHeight="1"/>
-    <row r="108" ht="122" customHeight="1"/>
-    <row r="109" ht="122" customHeight="1"/>
-    <row r="110" ht="122" customHeight="1"/>
-    <row r="111" ht="122" customHeight="1"/>
-    <row r="112" ht="122" customHeight="1"/>
-    <row r="113" ht="122" customHeight="1"/>
-    <row r="114" ht="122" customHeight="1"/>
-    <row r="115" ht="122" customHeight="1"/>
-    <row r="116" ht="122" customHeight="1"/>
-    <row r="117" ht="122" customHeight="1"/>
-    <row r="118" ht="122" customHeight="1"/>
-    <row r="119" ht="122" customHeight="1"/>
-    <row r="120" ht="122" customHeight="1"/>
-    <row r="121" ht="122" customHeight="1"/>
-    <row r="122" ht="122" customHeight="1"/>
-    <row r="123" ht="122" customHeight="1"/>
-    <row r="124" ht="122" customHeight="1"/>
-    <row r="125" ht="122" customHeight="1"/>
-    <row r="126" ht="122" customHeight="1"/>
-    <row r="127" ht="122" customHeight="1"/>
-    <row r="128" ht="122" customHeight="1"/>
-    <row r="129" ht="122" customHeight="1"/>
-    <row r="130" ht="122" customHeight="1"/>
-    <row r="131" ht="122" customHeight="1"/>
-    <row r="132" ht="122" customHeight="1"/>
-    <row r="133" ht="122" customHeight="1"/>
-    <row r="134" ht="122" customHeight="1"/>
-    <row r="135" ht="122" customHeight="1"/>
-    <row r="136" ht="122" customHeight="1"/>
-    <row r="137" ht="122" customHeight="1"/>
-    <row r="138" ht="122" customHeight="1"/>
-    <row r="139" ht="122" customHeight="1"/>
-    <row r="140" ht="122" customHeight="1"/>
-    <row r="141" ht="122" customHeight="1"/>
-    <row r="142" ht="122" customHeight="1"/>
-    <row r="143" ht="122" customHeight="1"/>
-    <row r="144" ht="122" customHeight="1"/>
-    <row r="145" ht="122" customHeight="1"/>
-    <row r="146" ht="122" customHeight="1"/>
-    <row r="147" ht="122" customHeight="1"/>
-    <row r="148" ht="122" customHeight="1"/>
-    <row r="149" ht="122" customHeight="1"/>
-    <row r="150" ht="122" customHeight="1"/>
-    <row r="151" ht="122" customHeight="1"/>
-    <row r="152" ht="122" customHeight="1"/>
-    <row r="153" ht="122" customHeight="1"/>
-    <row r="154" ht="122" customHeight="1"/>
-    <row r="155" ht="122" customHeight="1"/>
-    <row r="156" ht="122" customHeight="1"/>
-    <row r="157" ht="122" customHeight="1"/>
-    <row r="158" ht="122" customHeight="1"/>
-    <row r="159" ht="122" customHeight="1"/>
-    <row r="160" ht="122" customHeight="1"/>
-    <row r="161" ht="122" customHeight="1"/>
-    <row r="162" ht="122" customHeight="1"/>
-    <row r="163" ht="122" customHeight="1"/>
-    <row r="164" ht="122" customHeight="1"/>
-    <row r="165" ht="122" customHeight="1"/>
-    <row r="166" ht="122" customHeight="1"/>
-    <row r="167" ht="122" customHeight="1"/>
-    <row r="168" ht="122" customHeight="1"/>
-    <row r="169" ht="122" customHeight="1"/>
-    <row r="170" ht="122" customHeight="1"/>
-    <row r="171" ht="122" customHeight="1"/>
-    <row r="172" ht="122" customHeight="1"/>
-    <row r="173" ht="122" customHeight="1"/>
-    <row r="174" ht="122" customHeight="1"/>
-    <row r="175" ht="122" customHeight="1"/>
-    <row r="176" ht="122" customHeight="1"/>
-    <row r="177" ht="122" customHeight="1"/>
-    <row r="178" ht="122" customHeight="1"/>
-    <row r="179" ht="122" customHeight="1"/>
-    <row r="180" ht="122" customHeight="1"/>
-    <row r="181" ht="122" customHeight="1"/>
-    <row r="182" ht="122" customHeight="1"/>
-    <row r="183" ht="122" customHeight="1"/>
-    <row r="184" ht="122" customHeight="1"/>
-    <row r="185" ht="122" customHeight="1"/>
-    <row r="186" ht="122" customHeight="1"/>
-    <row r="187" ht="122" customHeight="1"/>
-    <row r="188" ht="122" customHeight="1"/>
-    <row r="189" ht="122" customHeight="1"/>
-    <row r="190" ht="122" customHeight="1"/>
-    <row r="191" ht="122" customHeight="1"/>
-    <row r="192" ht="122" customHeight="1"/>
-    <row r="193" ht="122" customHeight="1"/>
-    <row r="194" ht="122" customHeight="1"/>
-    <row r="195" ht="122" customHeight="1"/>
-    <row r="196" ht="122" customHeight="1"/>
-    <row r="197" ht="122" customHeight="1"/>
-    <row r="198" ht="122" customHeight="1"/>
-    <row r="199" ht="122" customHeight="1"/>
-    <row r="200" ht="122" customHeight="1"/>
-    <row r="201" ht="122" customHeight="1"/>
-    <row r="202" ht="122" customHeight="1"/>
-    <row r="203" ht="122" customHeight="1"/>
-    <row r="204" ht="122" customHeight="1"/>
-    <row r="205" ht="122" customHeight="1"/>
-    <row r="206" ht="122" customHeight="1"/>
-    <row r="207" ht="122" customHeight="1"/>
-    <row r="208" ht="122" customHeight="1"/>
-    <row r="209" ht="122" customHeight="1"/>
-    <row r="210" ht="122" customHeight="1"/>
-    <row r="211" ht="122" customHeight="1"/>
-    <row r="212" ht="122" customHeight="1"/>
-    <row r="213" ht="122" customHeight="1"/>
-    <row r="214" ht="122" customHeight="1"/>
-    <row r="215" ht="122" customHeight="1"/>
-    <row r="216" ht="122" customHeight="1"/>
-    <row r="217" ht="122" customHeight="1"/>
-    <row r="218" ht="122" customHeight="1"/>
-    <row r="219" ht="122" customHeight="1"/>
-    <row r="220" ht="122" customHeight="1"/>
-    <row r="221" ht="122" customHeight="1"/>
-    <row r="222" ht="122" customHeight="1"/>
-    <row r="223" ht="122" customHeight="1"/>
-    <row r="224" ht="122" customHeight="1"/>
-    <row r="225" ht="122" customHeight="1"/>
-    <row r="226" ht="122" customHeight="1"/>
-    <row r="227" ht="122" customHeight="1"/>
-    <row r="228" ht="122" customHeight="1"/>
-    <row r="229" ht="122" customHeight="1"/>
-    <row r="230" ht="122" customHeight="1"/>
-    <row r="231" ht="122" customHeight="1"/>
-    <row r="232" ht="122" customHeight="1"/>
-    <row r="233" ht="122" customHeight="1"/>
-    <row r="234" ht="122" customHeight="1"/>
-    <row r="235" ht="122" customHeight="1"/>
-    <row r="236" ht="122" customHeight="1"/>
-    <row r="237" ht="122" customHeight="1"/>
-    <row r="238" ht="122" customHeight="1"/>
-    <row r="239" ht="122" customHeight="1"/>
-    <row r="240" ht="122" customHeight="1"/>
-    <row r="241" ht="122" customHeight="1"/>
-    <row r="242" ht="122" customHeight="1"/>
-    <row r="243" ht="122" customHeight="1"/>
-    <row r="244" ht="122" customHeight="1"/>
-    <row r="245" ht="122" customHeight="1"/>
-    <row r="246" ht="122" customHeight="1"/>
-    <row r="247" ht="122" customHeight="1"/>
-    <row r="248" ht="122" customHeight="1"/>
-    <row r="249" ht="122" customHeight="1"/>
-    <row r="250" ht="122" customHeight="1"/>
-    <row r="251" ht="122" customHeight="1"/>
-    <row r="252" ht="122" customHeight="1"/>
-    <row r="253" ht="122" customHeight="1"/>
-    <row r="254" ht="122" customHeight="1"/>
-    <row r="255" ht="122" customHeight="1"/>
-    <row r="256" ht="122" customHeight="1"/>
-    <row r="257" ht="122" customHeight="1"/>
-    <row r="258" ht="122" customHeight="1"/>
+    <row r="17" ht="121.95" customHeight="1"/>
+    <row r="18" ht="121.95" customHeight="1"/>
+    <row r="19" ht="121.95" customHeight="1"/>
+    <row r="20" ht="121.95" customHeight="1"/>
+    <row r="21" ht="121.95" customHeight="1"/>
+    <row r="22" ht="121.95" customHeight="1"/>
+    <row r="23" ht="121.95" customHeight="1"/>
+    <row r="24" ht="121.95" customHeight="1"/>
+    <row r="25" ht="121.95" customHeight="1"/>
+    <row r="26" ht="121.95" customHeight="1"/>
+    <row r="27" ht="121.95" customHeight="1"/>
+    <row r="28" ht="121.95" customHeight="1"/>
+    <row r="29" ht="121.95" customHeight="1"/>
+    <row r="30" ht="121.95" customHeight="1"/>
+    <row r="31" ht="121.95" customHeight="1"/>
+    <row r="32" ht="121.95" customHeight="1"/>
+    <row r="33" ht="121.95" customHeight="1"/>
+    <row r="34" ht="121.95" customHeight="1"/>
+    <row r="35" ht="121.95" customHeight="1"/>
+    <row r="36" ht="121.95" customHeight="1"/>
+    <row r="37" ht="121.95" customHeight="1"/>
+    <row r="38" ht="121.95" customHeight="1"/>
+    <row r="39" ht="121.95" customHeight="1"/>
+    <row r="40" ht="121.95" customHeight="1"/>
+    <row r="41" ht="121.95" customHeight="1"/>
+    <row r="42" ht="121.95" customHeight="1"/>
+    <row r="43" ht="121.95" customHeight="1"/>
+    <row r="44" ht="121.95" customHeight="1"/>
+    <row r="45" ht="121.95" customHeight="1"/>
+    <row r="46" ht="121.95" customHeight="1"/>
+    <row r="47" ht="121.95" customHeight="1"/>
+    <row r="48" ht="121.95" customHeight="1"/>
+    <row r="49" ht="121.95" customHeight="1"/>
+    <row r="50" ht="121.95" customHeight="1"/>
+    <row r="51" ht="121.95" customHeight="1"/>
+    <row r="52" ht="121.95" customHeight="1"/>
+    <row r="53" ht="121.95" customHeight="1"/>
+    <row r="54" ht="121.95" customHeight="1"/>
+    <row r="55" ht="121.95" customHeight="1"/>
+    <row r="56" ht="121.95" customHeight="1"/>
+    <row r="57" ht="121.95" customHeight="1"/>
+    <row r="58" ht="121.95" customHeight="1"/>
+    <row r="59" ht="121.95" customHeight="1"/>
+    <row r="60" ht="121.95" customHeight="1"/>
+    <row r="61" ht="121.95" customHeight="1"/>
+    <row r="62" ht="121.95" customHeight="1"/>
+    <row r="63" ht="121.95" customHeight="1"/>
+    <row r="64" ht="121.95" customHeight="1"/>
+    <row r="65" ht="121.95" customHeight="1"/>
+    <row r="66" ht="121.95" customHeight="1"/>
+    <row r="67" ht="121.95" customHeight="1"/>
+    <row r="68" ht="121.95" customHeight="1"/>
+    <row r="69" ht="121.95" customHeight="1"/>
+    <row r="70" ht="121.95" customHeight="1"/>
+    <row r="71" ht="121.95" customHeight="1"/>
+    <row r="72" ht="121.95" customHeight="1"/>
+    <row r="73" ht="121.95" customHeight="1"/>
+    <row r="74" ht="121.95" customHeight="1"/>
+    <row r="75" ht="121.95" customHeight="1"/>
+    <row r="76" ht="121.95" customHeight="1"/>
+    <row r="77" ht="121.95" customHeight="1"/>
+    <row r="78" ht="121.95" customHeight="1"/>
+    <row r="79" ht="121.95" customHeight="1"/>
+    <row r="80" ht="121.95" customHeight="1"/>
+    <row r="81" ht="121.95" customHeight="1"/>
+    <row r="82" ht="121.95" customHeight="1"/>
+    <row r="83" ht="121.95" customHeight="1"/>
+    <row r="84" ht="121.95" customHeight="1"/>
+    <row r="85" ht="121.95" customHeight="1"/>
+    <row r="86" ht="121.95" customHeight="1"/>
+    <row r="87" ht="121.95" customHeight="1"/>
+    <row r="88" ht="121.95" customHeight="1"/>
+    <row r="89" ht="121.95" customHeight="1"/>
+    <row r="90" ht="121.95" customHeight="1"/>
+    <row r="91" ht="121.95" customHeight="1"/>
+    <row r="92" ht="121.95" customHeight="1"/>
+    <row r="93" ht="121.95" customHeight="1"/>
+    <row r="94" ht="121.95" customHeight="1"/>
+    <row r="95" ht="121.95" customHeight="1"/>
+    <row r="96" ht="121.95" customHeight="1"/>
+    <row r="97" ht="121.95" customHeight="1"/>
+    <row r="98" ht="121.95" customHeight="1"/>
+    <row r="99" ht="121.95" customHeight="1"/>
+    <row r="100" ht="121.95" customHeight="1"/>
+    <row r="101" ht="121.95" customHeight="1"/>
+    <row r="102" ht="121.95" customHeight="1"/>
+    <row r="103" ht="121.95" customHeight="1"/>
+    <row r="104" ht="121.95" customHeight="1"/>
+    <row r="105" ht="121.95" customHeight="1"/>
+    <row r="106" ht="121.95" customHeight="1"/>
+    <row r="107" ht="121.95" customHeight="1"/>
+    <row r="108" ht="121.95" customHeight="1"/>
+    <row r="109" ht="121.95" customHeight="1"/>
+    <row r="110" ht="121.95" customHeight="1"/>
+    <row r="111" ht="121.95" customHeight="1"/>
+    <row r="112" ht="121.95" customHeight="1"/>
+    <row r="113" ht="121.95" customHeight="1"/>
+    <row r="114" ht="121.95" customHeight="1"/>
+    <row r="115" ht="121.95" customHeight="1"/>
+    <row r="116" ht="121.95" customHeight="1"/>
+    <row r="117" ht="121.95" customHeight="1"/>
+    <row r="118" ht="121.95" customHeight="1"/>
+    <row r="119" ht="121.95" customHeight="1"/>
+    <row r="120" ht="121.95" customHeight="1"/>
+    <row r="121" ht="121.95" customHeight="1"/>
+    <row r="122" ht="121.95" customHeight="1"/>
+    <row r="123" ht="121.95" customHeight="1"/>
+    <row r="124" ht="121.95" customHeight="1"/>
+    <row r="125" ht="121.95" customHeight="1"/>
+    <row r="126" ht="121.95" customHeight="1"/>
+    <row r="127" ht="121.95" customHeight="1"/>
+    <row r="128" ht="121.95" customHeight="1"/>
+    <row r="129" ht="121.95" customHeight="1"/>
+    <row r="130" ht="121.95" customHeight="1"/>
+    <row r="131" ht="121.95" customHeight="1"/>
+    <row r="132" ht="121.95" customHeight="1"/>
+    <row r="133" ht="121.95" customHeight="1"/>
+    <row r="134" ht="121.95" customHeight="1"/>
+    <row r="135" ht="121.95" customHeight="1"/>
+    <row r="136" ht="121.95" customHeight="1"/>
+    <row r="137" ht="121.95" customHeight="1"/>
+    <row r="138" ht="121.95" customHeight="1"/>
+    <row r="139" ht="121.95" customHeight="1"/>
+    <row r="140" ht="121.95" customHeight="1"/>
+    <row r="141" ht="121.95" customHeight="1"/>
+    <row r="142" ht="121.95" customHeight="1"/>
+    <row r="143" ht="121.95" customHeight="1"/>
+    <row r="144" ht="121.95" customHeight="1"/>
+    <row r="145" ht="121.95" customHeight="1"/>
+    <row r="146" ht="121.95" customHeight="1"/>
+    <row r="147" ht="121.95" customHeight="1"/>
+    <row r="148" ht="121.95" customHeight="1"/>
+    <row r="149" ht="121.95" customHeight="1"/>
+    <row r="150" ht="121.95" customHeight="1"/>
+    <row r="151" ht="121.95" customHeight="1"/>
+    <row r="152" ht="121.95" customHeight="1"/>
+    <row r="153" ht="121.95" customHeight="1"/>
+    <row r="154" ht="121.95" customHeight="1"/>
+    <row r="155" ht="121.95" customHeight="1"/>
+    <row r="156" ht="121.95" customHeight="1"/>
+    <row r="157" ht="121.95" customHeight="1"/>
+    <row r="158" ht="121.95" customHeight="1"/>
+    <row r="159" ht="121.95" customHeight="1"/>
+    <row r="160" ht="121.95" customHeight="1"/>
+    <row r="161" ht="121.95" customHeight="1"/>
+    <row r="162" ht="121.95" customHeight="1"/>
+    <row r="163" ht="121.95" customHeight="1"/>
+    <row r="164" ht="121.95" customHeight="1"/>
+    <row r="165" ht="121.95" customHeight="1"/>
+    <row r="166" ht="121.95" customHeight="1"/>
+    <row r="167" ht="121.95" customHeight="1"/>
+    <row r="168" ht="121.95" customHeight="1"/>
+    <row r="169" ht="121.95" customHeight="1"/>
+    <row r="170" ht="121.95" customHeight="1"/>
+    <row r="171" ht="121.95" customHeight="1"/>
+    <row r="172" ht="121.95" customHeight="1"/>
+    <row r="173" ht="121.95" customHeight="1"/>
+    <row r="174" ht="121.95" customHeight="1"/>
+    <row r="175" ht="121.95" customHeight="1"/>
+    <row r="176" ht="121.95" customHeight="1"/>
+    <row r="177" ht="121.95" customHeight="1"/>
+    <row r="178" ht="121.95" customHeight="1"/>
+    <row r="179" ht="121.95" customHeight="1"/>
+    <row r="180" ht="121.95" customHeight="1"/>
+    <row r="181" ht="121.95" customHeight="1"/>
+    <row r="182" ht="121.95" customHeight="1"/>
+    <row r="183" ht="121.95" customHeight="1"/>
+    <row r="184" ht="121.95" customHeight="1"/>
+    <row r="185" ht="121.95" customHeight="1"/>
+    <row r="186" ht="121.95" customHeight="1"/>
+    <row r="187" ht="121.95" customHeight="1"/>
+    <row r="188" ht="121.95" customHeight="1"/>
+    <row r="189" ht="121.95" customHeight="1"/>
+    <row r="190" ht="121.95" customHeight="1"/>
+    <row r="191" ht="121.95" customHeight="1"/>
+    <row r="192" ht="121.95" customHeight="1"/>
+    <row r="193" ht="121.95" customHeight="1"/>
+    <row r="194" ht="121.95" customHeight="1"/>
+    <row r="195" ht="121.95" customHeight="1"/>
+    <row r="196" ht="121.95" customHeight="1"/>
+    <row r="197" ht="121.95" customHeight="1"/>
+    <row r="198" ht="121.95" customHeight="1"/>
+    <row r="199" ht="121.95" customHeight="1"/>
+    <row r="200" ht="121.95" customHeight="1"/>
+    <row r="201" ht="121.95" customHeight="1"/>
+    <row r="202" ht="121.95" customHeight="1"/>
+    <row r="203" ht="121.95" customHeight="1"/>
+    <row r="204" ht="121.95" customHeight="1"/>
+    <row r="205" ht="121.95" customHeight="1"/>
+    <row r="206" ht="121.95" customHeight="1"/>
+    <row r="207" ht="121.95" customHeight="1"/>
+    <row r="208" ht="121.95" customHeight="1"/>
+    <row r="209" ht="121.95" customHeight="1"/>
+    <row r="210" ht="121.95" customHeight="1"/>
+    <row r="211" ht="121.95" customHeight="1"/>
+    <row r="212" ht="121.95" customHeight="1"/>
+    <row r="213" ht="121.95" customHeight="1"/>
+    <row r="214" ht="121.95" customHeight="1"/>
+    <row r="215" ht="121.95" customHeight="1"/>
+    <row r="216" ht="121.95" customHeight="1"/>
+    <row r="217" ht="121.95" customHeight="1"/>
+    <row r="218" ht="121.95" customHeight="1"/>
+    <row r="219" ht="121.95" customHeight="1"/>
+    <row r="220" ht="121.95" customHeight="1"/>
+    <row r="221" ht="121.95" customHeight="1"/>
+    <row r="222" ht="121.95" customHeight="1"/>
+    <row r="223" ht="121.95" customHeight="1"/>
+    <row r="224" ht="121.95" customHeight="1"/>
+    <row r="225" ht="121.95" customHeight="1"/>
+    <row r="226" ht="121.95" customHeight="1"/>
+    <row r="227" ht="121.95" customHeight="1"/>
+    <row r="228" ht="121.95" customHeight="1"/>
+    <row r="229" ht="121.95" customHeight="1"/>
+    <row r="230" ht="121.95" customHeight="1"/>
+    <row r="231" ht="121.95" customHeight="1"/>
+    <row r="232" ht="121.95" customHeight="1"/>
+    <row r="233" ht="121.95" customHeight="1"/>
+    <row r="234" ht="121.95" customHeight="1"/>
+    <row r="235" ht="121.95" customHeight="1"/>
+    <row r="236" ht="121.95" customHeight="1"/>
+    <row r="237" ht="121.95" customHeight="1"/>
+    <row r="238" ht="121.95" customHeight="1"/>
+    <row r="239" ht="121.95" customHeight="1"/>
+    <row r="240" ht="121.95" customHeight="1"/>
+    <row r="241" ht="121.95" customHeight="1"/>
+    <row r="242" ht="121.95" customHeight="1"/>
+    <row r="243" ht="121.95" customHeight="1"/>
+    <row r="244" ht="121.95" customHeight="1"/>
+    <row r="245" ht="121.95" customHeight="1"/>
+    <row r="246" ht="121.95" customHeight="1"/>
+    <row r="247" ht="121.95" customHeight="1"/>
+    <row r="248" ht="121.95" customHeight="1"/>
+    <row r="249" ht="121.95" customHeight="1"/>
+    <row r="250" ht="121.95" customHeight="1"/>
+    <row r="251" ht="121.95" customHeight="1"/>
+    <row r="252" ht="121.95" customHeight="1"/>
+    <row r="253" ht="121.95" customHeight="1"/>
+    <row r="254" ht="121.95" customHeight="1"/>
+    <row r="255" ht="121.95" customHeight="1"/>
+    <row r="256" ht="121.95" customHeight="1"/>
+    <row r="257" ht="121.95" customHeight="1"/>
+    <row r="258" ht="121.95" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.709027777777778" right="0.709027777777778" top="0.959027777777778" bottom="0.959027777777778" header="0.468055555555556" footer="0.468055555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="14"/>
+  <pageMargins left="0.70902777777777803" right="0.70902777777777803" top="0.95902777777777803" bottom="0.95902777777777803" header="0.468055555555556" footer="0.468055555555556"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A95" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
-  <pageMargins left="0.709027777777778" right="0.709027777777778" top="0.959027777777778" bottom="0.959027777777778" header="0.468055555555556" footer="0.468055555555556"/>
+  <phoneticPr fontId="14"/>
+  <pageMargins left="0.70902777777777803" right="0.70902777777777803" top="0.95902777777777803" bottom="0.95902777777777803" header="0.468055555555556" footer="0.468055555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/クリックポスト発送情報/20200625230906/英子日本发货表格6.25.xlsx
+++ b/クリックポスト発送情報/20200625230906/英子日本发货表格6.25.xlsx
@@ -264,100 +264,104 @@
     <t>2</t>
   </si>
   <si>
+    <t xml:space="preserve"> 
+09054348340</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+fukuya-store-10000044</t>
+  </si>
+  <si>
+    <t>米白
+サイズ：M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+3670104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+埼玉県児玉郡美里町根木504-3</t>
+  </si>
+  <si>
+    <t>柿澤三弥</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+09034305439</t>
+  </si>
+  <si>
+    <t>628493845291</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845280</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845276</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845265</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628493845254</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845243</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845232</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845221</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845210</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845206</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845195</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845184</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845173</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>628493845151</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
     <t>9497415</t>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>新潟県魚沼市田川５４６</t>
+    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t xml:space="preserve"> 
 松本あゆみ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-09054348340</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-fukuya-store-10000044</t>
-  </si>
-  <si>
-    <t>米白
-サイズ：M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-3670104</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-埼玉県児玉郡美里町根木504-3</t>
-  </si>
-  <si>
-    <t>柿澤三弥</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-09034305439</t>
-  </si>
-  <si>
-    <t>628493845291</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>628493845280</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845276</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845265</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 628493845254</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845243</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845232</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845221</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845210</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845206</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845195</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845184</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845173</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845162</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>628493845151</t>
+    <t>628493845162
+628494532805</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -366,7 +370,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -607,7 +611,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1605,8 +1609,8 @@
   <dimension ref="A1:FY258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1982,7 +1986,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
@@ -2009,7 +2013,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
@@ -2036,7 +2040,7 @@
         <v>23</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
@@ -2063,7 +2067,7 @@
         <v>27</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
@@ -2090,7 +2094,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
@@ -2117,7 +2121,7 @@
         <v>35</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
@@ -2144,7 +2148,7 @@
         <v>39</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
@@ -2171,7 +2175,7 @@
         <v>43</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
@@ -2198,7 +2202,7 @@
         <v>47</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
@@ -2225,7 +2229,7 @@
         <v>53</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1">
@@ -2252,7 +2256,7 @@
         <v>58</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:181" ht="121.95" customHeight="1">
@@ -2279,7 +2283,7 @@
         <v>63</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
@@ -2306,7 +2310,7 @@
         <v>69</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1">
@@ -2321,46 +2325,46 @@
         <v>71</v>
       </c>
       <c r="F15" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>75</v>
-      </c>
       <c r="K15" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:181" ht="121.95" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>81</v>
-      </c>
       <c r="K16" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" ht="121.95" customHeight="1"/>
